--- a/documents/다중CCTV 간트차트.xlsx
+++ b/documents/다중CCTV 간트차트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkrju\OneDrive\바탕 화면\JYP\University\4학년 1학기\종프2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E6047F-E9A6-4E4F-98EF-6B72E232F00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA20D828-651D-474A-962A-5D245FC2AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3240" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>ASSIGNED TO</t>
   </si>
   <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
     <t>MULTI CCTV MONITORING SYSTEM</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
@@ -288,6 +285,10 @@
   </si>
   <si>
     <t>May 1st week</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video_processing</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +906,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1132,6 +1133,127 @@
     <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="20" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="20" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1144,133 +1266,11 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1288,129 +1288,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <border>
         <left style="thin">
@@ -1507,15 +1385,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstColumn" dxfId="14"/>
-      <tableStyleElement type="lastColumn" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1872,8 +1750,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1892,20 +1770,20 @@
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
       <c r="A1" s="14"/>
       <c r="B1" s="74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="23"/>
       <c r="Q1" s="83"/>
       <c r="R1" s="82"/>
@@ -1917,26 +1795,26 @@
       <c r="X1" s="82"/>
       <c r="Y1" s="82"/>
       <c r="Z1" s="82"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="121"/>
       <c r="AK1" s="23"/>
-      <c r="AL1" s="92" t="s">
+      <c r="AL1" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
+      <c r="AR1" s="121"/>
       <c r="AS1" s="23"/>
       <c r="AT1" s="83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AU1" s="82"/>
       <c r="AV1" s="82"/>
@@ -1950,300 +1828,300 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="104" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+        <v>29</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
       <c r="P2" s="23"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
       <c r="AK2" s="23"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="91"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
     </row>
     <row r="3" spans="1:64" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
     </row>
     <row r="4" spans="1:64" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="25"/>
       <c r="E4" s="26"/>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="94" t="s">
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="94" t="s">
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="106"/>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="106"/>
-      <c r="BG4" s="106"/>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="107"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="91"/>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="91"/>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="91"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="109">
+      <c r="I5" s="126">
         <v>1</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="119">
+      <c r="J5" s="115"/>
+      <c r="K5" s="114">
         <v>2</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="119">
+      <c r="L5" s="115"/>
+      <c r="M5" s="114">
         <v>3</v>
       </c>
-      <c r="N5" s="108"/>
-      <c r="O5" s="119">
+      <c r="N5" s="115"/>
+      <c r="O5" s="114">
         <v>4</v>
       </c>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="119">
+      <c r="P5" s="115"/>
+      <c r="Q5" s="114">
         <v>1</v>
       </c>
-      <c r="R5" s="108"/>
-      <c r="S5" s="119">
+      <c r="R5" s="115"/>
+      <c r="S5" s="114">
         <v>2</v>
       </c>
-      <c r="T5" s="108"/>
-      <c r="U5" s="119">
+      <c r="T5" s="115"/>
+      <c r="U5" s="114">
         <v>3</v>
       </c>
-      <c r="V5" s="108"/>
-      <c r="W5" s="119">
+      <c r="V5" s="115"/>
+      <c r="W5" s="114">
         <v>4</v>
       </c>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="119">
+      <c r="X5" s="115"/>
+      <c r="Y5" s="114">
         <v>5</v>
       </c>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="119">
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="114">
         <v>1</v>
       </c>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="119">
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="114">
         <v>2</v>
       </c>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="119">
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="114">
         <v>3</v>
       </c>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="119">
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="114">
         <v>4</v>
       </c>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="119">
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="114">
         <v>1</v>
       </c>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="119">
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="114">
         <v>2</v>
       </c>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="119">
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="114">
         <v>3</v>
       </c>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="119">
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="114">
         <v>4</v>
       </c>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="105"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="105"/>
-      <c r="AU5" s="105"/>
-      <c r="AV5" s="105"/>
-      <c r="AW5" s="105"/>
-      <c r="AX5" s="105"/>
-      <c r="AY5" s="105"/>
-      <c r="AZ5" s="105"/>
-      <c r="BA5" s="105"/>
-      <c r="BB5" s="105"/>
-      <c r="BC5" s="105"/>
-      <c r="BD5" s="105"/>
-      <c r="BE5" s="105"/>
-      <c r="BF5" s="105"/>
-      <c r="BG5" s="105"/>
-      <c r="BH5" s="105"/>
-      <c r="BI5" s="105"/>
-      <c r="BJ5" s="105"/>
-      <c r="BK5" s="105"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="90"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="90"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="90"/>
+      <c r="BJ5" s="90"/>
+      <c r="BK5" s="90"/>
       <c r="BL5" s="27"/>
     </row>
     <row r="6" spans="1:64" s="24" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="88"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111"/>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111"/>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111"/>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="111"/>
-      <c r="BJ6" s="111"/>
-      <c r="BK6" s="111"/>
-      <c r="BL6" s="112"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="125"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="94"/>
+      <c r="AS6" s="94"/>
+      <c r="AT6" s="94"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="94"/>
+      <c r="AW6" s="94"/>
+      <c r="AX6" s="94"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="94"/>
+      <c r="BB6" s="94"/>
+      <c r="BC6" s="94"/>
+      <c r="BD6" s="94"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="94"/>
+      <c r="BG6" s="94"/>
+      <c r="BH6" s="94"/>
+      <c r="BI6" s="94"/>
+      <c r="BJ6" s="94"/>
+      <c r="BK6" s="94"/>
+      <c r="BL6" s="95"/>
     </row>
     <row r="7" spans="1:64" s="24" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -2318,7 +2196,7 @@
     <row r="8" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
@@ -2388,18 +2266,18 @@
     </row>
     <row r="9" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>24</v>
+      <c r="B9" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="5" t="e">
@@ -2407,37 +2285,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I9" s="40"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="113"/>
-      <c r="AJ9" s="113"/>
-      <c r="AK9" s="113"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="113"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="96"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="96"/>
+      <c r="AI9" s="96"/>
+      <c r="AJ9" s="96"/>
+      <c r="AK9" s="96"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="96"/>
       <c r="AO9" s="40"/>
       <c r="AP9" s="40"/>
       <c r="AQ9" s="40"/>
@@ -2465,18 +2343,18 @@
     </row>
     <row r="10" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="122" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>24</v>
+      <c r="B10" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5" t="e">
@@ -2484,37 +2362,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I10" s="40"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="96"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="96"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40"/>
       <c r="AQ10" s="40"/>
@@ -2542,18 +2420,18 @@
     </row>
     <row r="11" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>24</v>
+      <c r="B11" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5" t="e">
@@ -2561,37 +2439,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I11" s="40"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="113"/>
-      <c r="AH11" s="113"/>
-      <c r="AI11" s="113"/>
-      <c r="AJ11" s="113"/>
-      <c r="AK11" s="113"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="113"/>
-      <c r="AN11" s="113"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
       <c r="AO11" s="40"/>
       <c r="AP11" s="40"/>
       <c r="AQ11" s="40"/>
@@ -2619,18 +2497,18 @@
     </row>
     <row r="12" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
-      <c r="B12" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>24</v>
+      <c r="B12" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="41"/>
       <c r="E12" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="42" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>60</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5" t="e">
@@ -2638,37 +2516,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I12" s="40"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="129"/>
-      <c r="AA12" s="129"/>
-      <c r="AB12" s="129"/>
-      <c r="AC12" s="129"/>
-      <c r="AD12" s="129"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="113"/>
-      <c r="AH12" s="113"/>
-      <c r="AI12" s="113"/>
-      <c r="AJ12" s="113"/>
-      <c r="AK12" s="113"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="113"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="109"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="96"/>
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="96"/>
+      <c r="AJ12" s="96"/>
+      <c r="AK12" s="96"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="96"/>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40"/>
       <c r="AQ12" s="40"/>
@@ -2696,18 +2574,18 @@
     </row>
     <row r="13" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>24</v>
+      <c r="B13" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="5" t="e">
@@ -2715,37 +2593,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I13" s="40"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="129"/>
-      <c r="AJ13" s="129"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="113"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="109"/>
+      <c r="AI13" s="109"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="96"/>
       <c r="AO13" s="40"/>
       <c r="AP13" s="40"/>
       <c r="AQ13" s="40"/>
@@ -2773,8 +2651,8 @@
     </row>
     <row r="14" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="123" t="s">
-        <v>28</v>
+      <c r="B14" s="103" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="44"/>
@@ -2785,52 +2663,52 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="115"/>
-      <c r="AD14" s="115"/>
-      <c r="AE14" s="115"/>
-      <c r="AF14" s="115"/>
-      <c r="AG14" s="115"/>
-      <c r="AH14" s="115"/>
-      <c r="AI14" s="115"/>
-      <c r="AJ14" s="115"/>
-      <c r="AK14" s="115"/>
-      <c r="AL14" s="115"/>
-      <c r="AM14" s="115"/>
-      <c r="AN14" s="115"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="98"/>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="98"/>
+      <c r="AL14" s="98"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="98"/>
     </row>
     <row r="15" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="124" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>25</v>
+      <c r="B15" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="47"/>
       <c r="E15" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5" t="e">
@@ -2838,37 +2716,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I15" s="40"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="113"/>
-      <c r="AI15" s="113"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="113"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="96"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="96"/>
+      <c r="AI15" s="96"/>
+      <c r="AJ15" s="96"/>
+      <c r="AK15" s="96"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="96"/>
       <c r="AO15" s="40"/>
       <c r="AP15" s="40"/>
       <c r="AQ15" s="40"/>
@@ -2896,18 +2774,18 @@
     </row>
     <row r="16" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
-      <c r="B16" s="124" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>25</v>
+      <c r="B16" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="5" t="e">
@@ -2915,37 +2793,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I16" s="40"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="113"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="113"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="96"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="96"/>
       <c r="AO16" s="40"/>
       <c r="AP16" s="40"/>
       <c r="AQ16" s="40"/>
@@ -2973,18 +2851,18 @@
     </row>
     <row r="17" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
-      <c r="B17" s="124" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="98" t="s">
-        <v>25</v>
+      <c r="B17" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>24</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="48" t="s">
         <v>61</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>62</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="e">
@@ -2992,37 +2870,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I17" s="40"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="113"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="113"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="96"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
       <c r="AO17" s="40"/>
       <c r="AP17" s="40"/>
       <c r="AQ17" s="40"/>
@@ -3050,18 +2928,18 @@
     </row>
     <row r="18" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
-      <c r="B18" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>25</v>
+      <c r="B18" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5" t="e">
@@ -3069,37 +2947,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I18" s="40"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="114"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="131"/>
-      <c r="AJ18" s="131"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="113"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="111"/>
+      <c r="AK18" s="96"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="96"/>
+      <c r="AN18" s="96"/>
       <c r="AO18" s="40"/>
       <c r="AP18" s="40"/>
       <c r="AQ18" s="40"/>
@@ -3127,8 +3005,8 @@
     </row>
     <row r="19" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="98"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="47"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
@@ -3138,37 +3016,37 @@
         <v/>
       </c>
       <c r="I19" s="40"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="113"/>
-      <c r="AG19" s="113"/>
-      <c r="AH19" s="113"/>
-      <c r="AI19" s="113"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="113"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="113"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="96"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="96"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="96"/>
       <c r="AO19" s="40"/>
       <c r="AP19" s="40"/>
       <c r="AQ19" s="40"/>
@@ -3196,8 +3074,8 @@
     </row>
     <row r="20" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
-      <c r="B20" s="125" t="s">
-        <v>29</v>
+      <c r="B20" s="105" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
@@ -3209,37 +3087,37 @@
         <v/>
       </c>
       <c r="I20" s="53"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="116"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="116"/>
-      <c r="AJ20" s="116"/>
-      <c r="AK20" s="116"/>
-      <c r="AL20" s="116"/>
-      <c r="AM20" s="116"/>
-      <c r="AN20" s="116"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
       <c r="AO20" s="53"/>
       <c r="AP20" s="53"/>
       <c r="AQ20" s="53"/>
@@ -3267,18 +3145,18 @@
     </row>
     <row r="21" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="126" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>26</v>
+      <c r="B21" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5" t="e">
@@ -3286,37 +3164,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I21" s="40"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="113"/>
-      <c r="AD21" s="113"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="113"/>
-      <c r="AH21" s="113"/>
-      <c r="AI21" s="113"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="113"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="96"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="96"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="96"/>
+      <c r="AG21" s="96"/>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="96"/>
+      <c r="AJ21" s="96"/>
+      <c r="AK21" s="96"/>
+      <c r="AL21" s="96"/>
+      <c r="AM21" s="96"/>
+      <c r="AN21" s="96"/>
       <c r="AO21" s="40"/>
       <c r="AP21" s="40"/>
       <c r="AQ21" s="40"/>
@@ -3344,18 +3222,18 @@
     </row>
     <row r="22" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>26</v>
+      <c r="B22" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>25</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="5" t="e">
@@ -3363,37 +3241,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I22" s="40"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="113"/>
-      <c r="AH22" s="113"/>
-      <c r="AI22" s="113"/>
-      <c r="AJ22" s="113"/>
-      <c r="AK22" s="113"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="96"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="96"/>
+      <c r="AN22" s="96"/>
       <c r="AO22" s="40"/>
       <c r="AP22" s="40"/>
       <c r="AQ22" s="40"/>
@@ -3421,18 +3299,18 @@
     </row>
     <row r="23" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>26</v>
+      <c r="B23" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>25</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5" t="e">
@@ -3440,37 +3318,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I23" s="40"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="113"/>
-      <c r="AI23" s="113"/>
-      <c r="AJ23" s="113"/>
-      <c r="AK23" s="113"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="113"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="96"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="96"/>
+      <c r="AJ23" s="96"/>
+      <c r="AK23" s="96"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="96"/>
+      <c r="AN23" s="96"/>
       <c r="AO23" s="40"/>
       <c r="AP23" s="40"/>
       <c r="AQ23" s="40"/>
@@ -3498,18 +3376,18 @@
     </row>
     <row r="24" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
-      <c r="B24" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="99" t="s">
-        <v>26</v>
+      <c r="B24" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5" t="e">
@@ -3517,37 +3395,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I24" s="40"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="113"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="132"/>
-      <c r="AE24" s="132"/>
-      <c r="AF24" s="132"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="132"/>
-      <c r="AJ24" s="132"/>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="113"/>
-      <c r="AN24" s="113"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="112"/>
+      <c r="AH24" s="112"/>
+      <c r="AI24" s="112"/>
+      <c r="AJ24" s="112"/>
+      <c r="AK24" s="96"/>
+      <c r="AL24" s="96"/>
+      <c r="AM24" s="96"/>
+      <c r="AN24" s="96"/>
       <c r="AO24" s="40"/>
       <c r="AP24" s="40"/>
       <c r="AQ24" s="40"/>
@@ -3575,8 +3453,8 @@
     </row>
     <row r="25" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="99"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -3586,37 +3464,37 @@
         <v/>
       </c>
       <c r="I25" s="40"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="113"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="113"/>
-      <c r="AG25" s="113"/>
-      <c r="AH25" s="113"/>
-      <c r="AI25" s="113"/>
-      <c r="AJ25" s="113"/>
-      <c r="AK25" s="113"/>
-      <c r="AL25" s="113"/>
-      <c r="AM25" s="113"/>
-      <c r="AN25" s="113"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="96"/>
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="96"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="96"/>
+      <c r="AI25" s="96"/>
+      <c r="AJ25" s="96"/>
+      <c r="AK25" s="96"/>
+      <c r="AL25" s="96"/>
+      <c r="AM25" s="96"/>
+      <c r="AN25" s="96"/>
       <c r="AO25" s="40"/>
       <c r="AP25" s="40"/>
       <c r="AQ25" s="40"/>
@@ -3644,8 +3522,8 @@
     </row>
     <row r="26" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="127" t="s">
-        <v>21</v>
+      <c r="B26" s="107" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="57"/>
@@ -3657,37 +3535,37 @@
         <v/>
       </c>
       <c r="I26" s="60"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="117"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="100"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="100"/>
       <c r="AO26" s="60"/>
       <c r="AP26" s="60"/>
       <c r="AQ26" s="60"/>
@@ -3715,18 +3593,18 @@
     </row>
     <row r="27" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
-      <c r="B27" s="128" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="100" t="s">
-        <v>27</v>
+      <c r="B27" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>26</v>
       </c>
       <c r="D27" s="61"/>
       <c r="E27" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5" t="e">
@@ -3734,37 +3612,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I27" s="40"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="113"/>
-      <c r="W27" s="113"/>
-      <c r="X27" s="113"/>
-      <c r="Y27" s="113"/>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="113"/>
-      <c r="AB27" s="113"/>
-      <c r="AC27" s="113"/>
-      <c r="AD27" s="113"/>
-      <c r="AE27" s="113"/>
-      <c r="AF27" s="113"/>
-      <c r="AG27" s="113"/>
-      <c r="AH27" s="113"/>
-      <c r="AI27" s="113"/>
-      <c r="AJ27" s="113"/>
-      <c r="AK27" s="113"/>
-      <c r="AL27" s="113"/>
-      <c r="AM27" s="113"/>
-      <c r="AN27" s="113"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="96"/>
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="96"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="96"/>
+      <c r="AI27" s="96"/>
+      <c r="AJ27" s="96"/>
+      <c r="AK27" s="96"/>
+      <c r="AL27" s="96"/>
+      <c r="AM27" s="96"/>
+      <c r="AN27" s="96"/>
       <c r="AO27" s="40"/>
       <c r="AP27" s="40"/>
       <c r="AQ27" s="40"/>
@@ -3792,18 +3670,18 @@
     </row>
     <row r="28" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
-      <c r="B28" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="100" t="s">
-        <v>27</v>
+      <c r="B28" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>26</v>
       </c>
       <c r="D28" s="61"/>
       <c r="E28" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="5" t="e">
@@ -3811,37 +3689,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I28" s="40"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="113"/>
-      <c r="W28" s="113"/>
-      <c r="X28" s="113"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="113"/>
-      <c r="AA28" s="113"/>
-      <c r="AB28" s="113"/>
-      <c r="AC28" s="113"/>
-      <c r="AD28" s="113"/>
-      <c r="AE28" s="113"/>
-      <c r="AF28" s="113"/>
-      <c r="AG28" s="113"/>
-      <c r="AH28" s="113"/>
-      <c r="AI28" s="113"/>
-      <c r="AJ28" s="113"/>
-      <c r="AK28" s="113"/>
-      <c r="AL28" s="113"/>
-      <c r="AM28" s="113"/>
-      <c r="AN28" s="113"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="96"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="96"/>
+      <c r="AI28" s="96"/>
+      <c r="AJ28" s="96"/>
+      <c r="AK28" s="96"/>
+      <c r="AL28" s="96"/>
+      <c r="AM28" s="96"/>
+      <c r="AN28" s="96"/>
       <c r="AO28" s="40"/>
       <c r="AP28" s="40"/>
       <c r="AQ28" s="40"/>
@@ -3869,18 +3747,18 @@
     </row>
     <row r="29" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
-      <c r="B29" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="100" t="s">
-        <v>27</v>
+      <c r="B29" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>26</v>
       </c>
       <c r="D29" s="61"/>
       <c r="E29" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5" t="e">
@@ -3888,37 +3766,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="40"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="133"/>
-      <c r="S29" s="133"/>
-      <c r="T29" s="133"/>
-      <c r="U29" s="133"/>
-      <c r="V29" s="133"/>
-      <c r="W29" s="133"/>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="133"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="113"/>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="113"/>
-      <c r="AN29" s="113"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="96"/>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="96"/>
+      <c r="AG29" s="96"/>
+      <c r="AH29" s="96"/>
+      <c r="AI29" s="96"/>
+      <c r="AJ29" s="96"/>
+      <c r="AK29" s="96"/>
+      <c r="AL29" s="96"/>
+      <c r="AM29" s="96"/>
+      <c r="AN29" s="96"/>
       <c r="AO29" s="40"/>
       <c r="AP29" s="40"/>
       <c r="AQ29" s="40"/>
@@ -3946,18 +3824,18 @@
     </row>
     <row r="30" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="100" t="s">
-        <v>27</v>
+      <c r="B30" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>26</v>
       </c>
       <c r="D30" s="61"/>
       <c r="E30" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5" t="e">
@@ -3965,37 +3843,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="40"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="133"/>
-      <c r="AB30" s="133"/>
-      <c r="AC30" s="133"/>
-      <c r="AD30" s="133"/>
-      <c r="AE30" s="133"/>
-      <c r="AF30" s="133"/>
-      <c r="AG30" s="133"/>
-      <c r="AH30" s="133"/>
-      <c r="AI30" s="133"/>
-      <c r="AJ30" s="133"/>
-      <c r="AK30" s="113"/>
-      <c r="AL30" s="113"/>
-      <c r="AM30" s="113"/>
-      <c r="AN30" s="113"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="113"/>
+      <c r="AJ30" s="113"/>
+      <c r="AK30" s="96"/>
+      <c r="AL30" s="96"/>
+      <c r="AM30" s="96"/>
+      <c r="AN30" s="96"/>
       <c r="AO30" s="40"/>
       <c r="AP30" s="40"/>
       <c r="AQ30" s="40"/>
@@ -4023,8 +3901,8 @@
     </row>
     <row r="31" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="100"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="61"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
@@ -4034,42 +3912,42 @@
         <v/>
       </c>
       <c r="I31" s="40"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="113"/>
-      <c r="AB31" s="113"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="113"/>
-      <c r="AJ31" s="113"/>
-      <c r="AK31" s="113"/>
-      <c r="AL31" s="113"/>
-      <c r="AM31" s="113"/>
-      <c r="AN31" s="113"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="96"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="96"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="96"/>
+      <c r="AI31" s="96"/>
+      <c r="AJ31" s="96"/>
+      <c r="AK31" s="96"/>
+      <c r="AL31" s="96"/>
+      <c r="AM31" s="96"/>
+      <c r="AN31" s="96"/>
       <c r="AO31" s="40"/>
       <c r="AP31" s="40"/>
       <c r="AQ31" s="40"/>
       <c r="AR31" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS31" s="40"/>
       <c r="AT31" s="40"/>
@@ -4244,23 +4122,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="AI4:AP4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="Q4:Z4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="AL1:AR1"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="AD1:AJ1"/>
-    <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="AL2:AU2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="Q2:Z2"/>
@@ -4274,11 +4140,23 @@
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="AD1:AJ1"/>
+    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AL2:AU2"/>
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="AI4:AP4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations disablePrompts="1" count="13">
@@ -4433,12 +4311,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4754,29 +4643,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4803,20 +4692,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
